--- a/output/StructureDefinition-PhrProvenance.xlsx
+++ b/output/StructureDefinition-PhrProvenance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T01:41:51-04:00</t>
+    <t>2022-09-21T01:58:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrProvenance.xlsx
+++ b/output/StructureDefinition-PhrProvenance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T01:58:34-04:00</t>
+    <t>2022-09-21T12:25:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrProvenance.xlsx
+++ b/output/StructureDefinition-PhrProvenance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.9</t>
+    <t>0.3.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T12:25:18-04:00</t>
+    <t>2022-09-28T23:23:22-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-PhrProvenance.xlsx
+++ b/output/StructureDefinition-PhrProvenance.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.10</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T23:23:22-07:00</t>
+    <t>2022-09-29T00:03:59-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
